--- a/test/test3.xlsx
+++ b/test/test3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>@</t>
   </si>
@@ -88,6 +88,23 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>{
+"a":1
+}</t>
+  </si>
+  <si>
+    <t>{"a":1}</t>
   </si>
   <si>
     <t>3</t>
@@ -119,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,6 +150,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -140,10 +180,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,29 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,54 +280,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,30 +293,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -286,73 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,109 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,8 +514,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,13 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,137 +614,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +753,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1305,13 +1328,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:G21"/>
+  <dimension ref="B8:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
@@ -1325,7 +1351,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1344,8 +1370,11 @@
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1364,8 +1393,11 @@
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1384,8 +1416,11 @@
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="2:8">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>1</v>
@@ -1402,8 +1437,11 @@
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>2</v>
@@ -1420,10 +1458,13 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -1437,10 +1478,13 @@
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -1454,10 +1498,13 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -1471,10 +1518,13 @@
       <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>22</v>
@@ -1488,10 +1538,13 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
@@ -1505,10 +1558,13 @@
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1522,10 +1578,13 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
@@ -1539,10 +1598,11 @@
       <c r="G20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -1556,6 +1616,7 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
